--- a/apps/job-assign2-injection/jobtable.xlsx
+++ b/apps/job-assign2-injection/jobtable.xlsx
@@ -1,36 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\develop\ProcGA\apps\job-assign2-injection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZT717572\Documents\develop\ProcGA\apps\job-assign2-injection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07707BDA-744E-4A10-BE28-0D47F228DEFA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{63628B71-7F1F-44BF-8BB8-E52A9735264D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="objects" sheetId="1" r:id="rId1"/>
     <sheet name="machine" sheetId="2" r:id="rId2"/>
     <sheet name="result" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>ishizaki</t>
     <phoneticPr fontId="18"/>
@@ -115,10 +107,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>AS</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>TS</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -127,10 +115,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>CL</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>ACL</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -164,6 +148,22 @@
   </si>
   <si>
     <t>[5;6;7;8]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AS1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AS2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CL1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CL2</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -817,6 +817,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2D71D7B-AA0D-48F1-83F9-B6BFD853A703}" name="テーブル1" displayName="テーブル1" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{66BDD4B0-611D-4DC5-97B9-9B106330900C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4EB288C7-4ABE-4866-A94C-5D75EA80B27F}" name="job"/>
+    <tableColumn id="2" xr3:uid="{01BBD824-29C8-446B-A2F7-0A6F5B4CB017}" name="min"/>
+    <tableColumn id="3" xr3:uid="{3014DB3C-7142-45E1-B4E6-46C4A6DDC72D}" name="pc"/>
+    <tableColumn id="4" xr3:uid="{70024FC4-CABC-4C9B-B2E3-CE160EB92085}" name="qty"/>
+    <tableColumn id="5" xr3:uid="{474326C3-173D-4889-9CE7-8886A2083FA8}" name="runtime">
+      <calculatedColumnFormula>D2/B2*C2/60</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1116,17 +1132,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="4.875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
@@ -1143,16 +1159,16 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -1175,7 +1191,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>1.5</v>
@@ -1184,16 +1200,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="0">D3/B3*C3/60</f>
-        <v>177.77777777777777</v>
+        <f t="shared" ref="E3:E11" si="0">D3/B3*C3/60</f>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>1.5</v>
@@ -1202,52 +1218,52 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>44.444444444444443</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>1.5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>5.5555555555555554</v>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>6000</v>
+        <v>500</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>5.5555555555555554</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1256,16 +1272,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1274,27 +1290,63 @@
         <v>2</v>
       </c>
       <c r="D8">
+        <v>3000</v>
+      </c>
+      <c r="E8">
+        <f>D8/B8*C8/60</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>1000</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>200</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
@@ -1303,6 +1355,9 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1310,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1340,7 +1395,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1351,7 +1406,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1362,7 +1417,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/apps/job-assign2-injection/jobtable.xlsx
+++ b/apps/job-assign2-injection/jobtable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZT717572\Documents\develop\ProcGA\apps\job-assign2-injection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{63628B71-7F1F-44BF-8BB8-E52A9735264D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6444C73C-9121-4E0C-B4FA-9142C9EB58DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>ishizaki</t>
     <phoneticPr fontId="18"/>
@@ -127,14 +127,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>min</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>runtime</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>pc</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -164,6 +156,34 @@
   </si>
   <si>
     <t>CL2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>runday</t>
+  </si>
+  <si>
+    <t>shotlimit</t>
+  </si>
+  <si>
+    <t>useday</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>shot</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Ctmin</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>OCL</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -757,8 +777,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,7 +829,17 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -820,16 +853,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2D71D7B-AA0D-48F1-83F9-B6BFD853A703}" name="テーブル1" displayName="テーブル1" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E11" xr:uid="{66BDD4B0-611D-4DC5-97B9-9B106330900C}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2D71D7B-AA0D-48F1-83F9-B6BFD853A703}" name="テーブル1" displayName="テーブル1" ref="A1:J12" totalsRowShown="0">
+  <autoFilter ref="A1:J12" xr:uid="{66BDD4B0-611D-4DC5-97B9-9B106330900C}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4EB288C7-4ABE-4866-A94C-5D75EA80B27F}" name="job"/>
-    <tableColumn id="2" xr3:uid="{01BBD824-29C8-446B-A2F7-0A6F5B4CB017}" name="min"/>
+    <tableColumn id="2" xr3:uid="{01BBD824-29C8-446B-A2F7-0A6F5B4CB017}" name="Ctmin"/>
     <tableColumn id="3" xr3:uid="{3014DB3C-7142-45E1-B4E6-46C4A6DDC72D}" name="pc"/>
+    <tableColumn id="9" xr3:uid="{E69EBAF9-CBC5-49EC-9D6E-80707A9C1EEB}" name="hour"/>
+    <tableColumn id="10" xr3:uid="{1842E10E-19BE-495A-8074-D90CB33D864C}" name="shot" dataDxfId="2">
+      <calculatedColumnFormula>テーブル1[[#This Row],[hour]]*60/テーブル1[[#This Row],[Ctmin]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="4" xr3:uid="{70024FC4-CABC-4C9B-B2E3-CE160EB92085}" name="qty"/>
-    <tableColumn id="5" xr3:uid="{474326C3-173D-4889-9CE7-8886A2083FA8}" name="runtime">
-      <calculatedColumnFormula>D2/B2*C2/60</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{474326C3-173D-4889-9CE7-8886A2083FA8}" name="runday" dataDxfId="1">
+      <calculatedColumnFormula>CEILING(テーブル1[[#This Row],[qty]]/(テーブル1[[#This Row],[shot]]*テーブル1[[#This Row],[pc]]),1)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="6" xr3:uid="{8F083706-8813-472E-AA27-50D6C841579A}" name="shotlimit"/>
+    <tableColumn id="7" xr3:uid="{39831B21-A3DE-4718-8E6D-F0C84A3E5F69}" name="useday" dataDxfId="0">
+      <calculatedColumnFormula>CEILING(テーブル1[[#This Row],[shotlimit]]/テーブル1[[#This Row],[shot]],1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{0D3F08C2-852F-42D3-A0E8-C38E32D4048B}" name="interval"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1132,46 +1174,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="6.125" customWidth="1"/>
-    <col min="3" max="3" width="4.875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.625" customWidth="1"/>
-    <col min="11" max="11" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="101" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.875" customWidth="1"/>
+    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.625" customWidth="1"/>
+    <col min="13" max="13" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="103" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
       <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1182,16 +1240,33 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <f>テーブル1[[#This Row],[hour]]*60/テーブル1[[#This Row],[Ctmin]]</f>
+        <v>600</v>
+      </c>
+      <c r="F2">
         <v>4000</v>
       </c>
-      <c r="E2">
-        <f>D2/B2*C2/60</f>
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G2">
+        <f>CEILING(テーブル1[[#This Row],[qty]]/(テーブル1[[#This Row],[shot]]*テーブル1[[#This Row],[pc]]),1)</f>
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>800</v>
+      </c>
+      <c r="I2">
+        <f>CEILING(テーブル1[[#This Row],[shotlimit]]/テーブル1[[#This Row],[shot]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>1.5</v>
@@ -1200,16 +1275,33 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>4000</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="0">D3/B3*C3/60</f>
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <f>テーブル1[[#This Row],[hour]]*60/テーブル1[[#This Row],[Ctmin]]</f>
+        <v>600</v>
+      </c>
+      <c r="F3">
+        <v>7000</v>
+      </c>
+      <c r="G3">
+        <f>CEILING(テーブル1[[#This Row],[qty]]/(テーブル1[[#This Row],[shot]]*テーブル1[[#This Row],[pc]]),1)</f>
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>800</v>
+      </c>
+      <c r="I3">
+        <f>CEILING(テーブル1[[#This Row],[shotlimit]]/テーブル1[[#This Row],[shot]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1.5</v>
@@ -1218,14 +1310,31 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>4000</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <f>テーブル1[[#This Row],[hour]]*60/テーブル1[[#This Row],[Ctmin]]</f>
+        <v>600</v>
+      </c>
+      <c r="F4">
+        <v>7000</v>
+      </c>
+      <c r="G4">
+        <f>CEILING(テーブル1[[#This Row],[qty]]/(テーブル1[[#This Row],[shot]]*テーブル1[[#This Row],[pc]]),1)</f>
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>800</v>
+      </c>
+      <c r="I4">
+        <f>CEILING(テーブル1[[#This Row],[shotlimit]]/テーブル1[[#This Row],[shot]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1236,14 +1345,31 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>44.444444444444443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <f>テーブル1[[#This Row],[hour]]*60/テーブル1[[#This Row],[Ctmin]]</f>
+        <v>600</v>
+      </c>
+      <c r="F5">
+        <v>3000</v>
+      </c>
+      <c r="G5">
+        <f>CEILING(テーブル1[[#This Row],[qty]]/(テーブル1[[#This Row],[shot]]*テーブル1[[#This Row],[pc]]),1)</f>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>800</v>
+      </c>
+      <c r="I5">
+        <f>CEILING(テーブル1[[#This Row],[shotlimit]]/テーブル1[[#This Row],[shot]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1254,16 +1380,33 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <f>テーブル1[[#This Row],[hour]]*60/テーブル1[[#This Row],[Ctmin]]</f>
+        <v>600</v>
+      </c>
+      <c r="F6">
+        <v>700</v>
+      </c>
+      <c r="G6">
+        <f>CEILING(テーブル1[[#This Row],[qty]]/(テーブル1[[#This Row],[shot]]*テーブル1[[#This Row],[pc]]),1)</f>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>800</v>
+      </c>
+      <c r="I6">
+        <f>CEILING(テーブル1[[#This Row],[shotlimit]]/テーブル1[[#This Row],[shot]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1272,16 +1415,33 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>3000</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <f>テーブル1[[#This Row],[hour]]*60/テーブル1[[#This Row],[Ctmin]]</f>
+        <v>450</v>
+      </c>
+      <c r="F7">
+        <v>4000</v>
+      </c>
+      <c r="G7">
+        <f>CEILING(テーブル1[[#This Row],[qty]]/(テーブル1[[#This Row],[shot]]*テーブル1[[#This Row],[pc]]),1)</f>
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>800</v>
+      </c>
+      <c r="I7">
+        <f>CEILING(テーブル1[[#This Row],[shotlimit]]/テーブル1[[#This Row],[shot]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1290,14 +1450,31 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>3000</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <f>D8/B8*C8/60</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <f>テーブル1[[#This Row],[hour]]*60/テーブル1[[#This Row],[Ctmin]]</f>
+        <v>450</v>
+      </c>
+      <c r="F8">
+        <v>4000</v>
+      </c>
+      <c r="G8">
+        <f>CEILING(テーブル1[[#This Row],[qty]]/(テーブル1[[#This Row],[shot]]*テーブル1[[#This Row],[pc]]),1)</f>
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>800</v>
+      </c>
+      <c r="I8">
+        <f>CEILING(テーブル1[[#This Row],[shotlimit]]/テーブル1[[#This Row],[shot]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1308,14 +1485,31 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <f>テーブル1[[#This Row],[hour]]*60/テーブル1[[#This Row],[Ctmin]]</f>
+        <v>450</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <f>CEILING(テーブル1[[#This Row],[qty]]/(テーブル1[[#This Row],[shot]]*テーブル1[[#This Row],[pc]]),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>800</v>
+      </c>
+      <c r="I9">
+        <f>CEILING(テーブル1[[#This Row],[shotlimit]]/テーブル1[[#This Row],[shot]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1326,14 +1520,31 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <f>テーブル1[[#This Row],[hour]]*60/テーブル1[[#This Row],[Ctmin]]</f>
+        <v>450</v>
+      </c>
+      <c r="F10">
+        <v>600</v>
+      </c>
+      <c r="G10">
+        <f>CEILING(テーブル1[[#This Row],[qty]]/(テーブル1[[#This Row],[shot]]*テーブル1[[#This Row],[pc]]),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>800</v>
+      </c>
+      <c r="I10">
+        <f>CEILING(テーブル1[[#This Row],[shotlimit]]/テーブル1[[#This Row],[shot]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1344,11 +1555,63 @@
         <v>2</v>
       </c>
       <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <f>テーブル1[[#This Row],[hour]]*60/テーブル1[[#This Row],[Ctmin]]</f>
+        <v>450</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <f>CEILING(テーブル1[[#This Row],[qty]]/(テーブル1[[#This Row],[shot]]*テーブル1[[#This Row],[pc]]),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>800</v>
+      </c>
+      <c r="I11">
+        <f>CEILING(テーブル1[[#This Row],[shotlimit]]/テーブル1[[#This Row],[shot]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1">
+        <f>テーブル1[[#This Row],[hour]]*60/テーブル1[[#This Row],[Ctmin]]</f>
+        <v>450</v>
+      </c>
+      <c r="F12">
         <v>200</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
+      <c r="G12" s="1">
+        <f>CEILING(テーブル1[[#This Row],[qty]]/(テーブル1[[#This Row],[shot]]*テーブル1[[#This Row],[pc]]),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>800</v>
+      </c>
+      <c r="I12" s="1">
+        <f>CEILING(テーブル1[[#This Row],[shotlimit]]/テーブル1[[#This Row],[shot]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1658,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1406,7 +1669,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1417,7 +1680,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
